--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T23:01:09+00:00</t>
+    <t>2024-12-23T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:45:33+00:00</t>
+    <t>2024-12-27T16:03:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T16:03:14+00:00</t>
+    <t>2024-12-28T21:18:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-28T21:18:04+00:00</t>
+    <t>2025-01-02T22:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T22:55:55+00:00</t>
+    <t>2025-01-06T17:40:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T17:40:57+00:00</t>
+    <t>2025-01-06T22:35:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-06T22:35:31+00:00</t>
+    <t>2025-01-08T19:36:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08T19:36:44+00:00</t>
+    <t>2025-01-09T14:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-09T14:13:32+00:00</t>
+    <t>2025-01-10T15:56:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Patient-Reported Outcome Measure (PROM) score</t>
+    <t>Patient-Reported Outcome Measure (PROM) score observation</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T15:56:56+00:00</t>
+    <t>2025-01-10T20:42:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-10T20:42:09+00:00</t>
+    <t>2025-01-18T20:16:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -899,8 +899,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-integer</t>
+    <t xml:space="preserve">Quantity
+</t>
   </si>
   <si>
     <t>(USCDI) Actual result</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-18T20:16:34+00:00</t>
+    <t>2025-01-19T14:30:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T14:30:29+00:00</t>
+    <t>2025-01-19T16:32:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-19T16:32:23+00:00</t>
+    <t>2025-01-25T16:46:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-25T16:46:38+00:00</t>
+    <t>2025-02-03T23:01:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pco-prom-score-observation.xlsx
+++ b/StructureDefinition-pco-prom-score-observation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$54</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-03T23:01:50+00:00</t>
+    <t>2025-02-10T21:11:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-simple-observation</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -272,14 +272,14 @@
 </t>
   </si>
   <si>
-    <t>assessment observation</t>
+    <t>Survey Observation</t>
   </si>
   <si>
     <t>\-</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}us-core-3:SHALL use UCUM for coded quantity units. {value.ofType(Quantity).system.empty() or value.ofType(Quantity).system = 'http://unitsofmeasure.org'}</t>
   </si>
   <si>
     <t>Event</t>
@@ -644,10 +644,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:us-core</t>
-  </si>
-  <si>
-    <t>us-core</t>
+    <t>Observation.category:survey</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Used for filtering if the observation is an assessment or screening.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -658,10 +661,22 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
+    <t>Observation.category:screening-assessment</t>
+  </si>
+  <si>
+    <t>screening-assessment</t>
+  </si>
+  <si>
+    <t>Categories that a provider may use in their workflow to classify that this Observation is related to a USCDI Health Status/Assessments Data Class.</t>
+  </si>
+  <si>
+    <t>Used for filtering the type of screening or assessment observation.</t>
+  </si>
+  <si>
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-screening-assessment-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -822,6 +837,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">us-core-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -881,6 +904,9 @@
     <t>Who was responsible for asserting the observed value as "true".</t>
   </si>
   <si>
+    <t>Some questions on questionnaires are not answered directly (e.g., asserted) by the individual completing the questionnaire, but are derived from answers to one or more other questions. For types of answers, `Observation.performer` should not be specified and `Observation.derivedFrom` should reference the relevant Screening Response Observation(s).</t>
+  </si>
+  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -909,14 +935,14 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>An observation may have a value if it represents an individual survey, screening, or assessment question and answer pair. An observation should not have a value if it represents a multi-question or multi-select “check all that apply” responses. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>obs-7
+us-core-2us-core-3</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -934,14 +960,13 @@
     <t>Observation.dataAbsentReason</t>
   </si>
   <si>
-    <t>Why the result is missing</t>
+    <t>(USCDI) Why the result is missing</t>
   </si>
   <si>
     <t>Provides a reason why the expected value in the element Observation.value[x] is missing.</t>
   </si>
   <si>
-    <t>Null or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "specimen unsatisfactory".   
-The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed. Note that an observation may only be reported if there are values to report. For example differential cell counts values may be reported only when &gt; 0.  Because of these options, use-case agreements are required to interpret general observations for null or exceptional values.</t>
+    <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values. For a given LOINC question, if the LOINC answer list includes concepts such as 'unknown' or 'not available', they should be used for Observation.value. Where these concepts are not part of the value set for Observation.value, the Observation.dataAbsentReason can be used if necessary and appropriate.</t>
   </si>
   <si>
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
@@ -953,8 +978,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+us-core-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1336,17 +1361,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>(USCDI) Reference to panel members or multi-select responses or multi-select responses</t>
+  </si>
+  <si>
+    <t>Aggregate set of Observations that represent question answer pairs for both multi-question surveys, screenings, and assessments and multi-select questions.</t>
+  </si>
+  <si>
+    <t>This grouping element is used to represent surveys, screenings, and assessments that group several questions together or individual questions with  “check all that apply” responses. For example in the simplest case a flat multi-question survey where the "panel" observation is the survey instrument itself and instead of an `Observation.value` the `hasMember` element references other Observation that represent the individual questions answer pairs. When there is a heirarchical grouping of questions, the observation "panels" can be nested. Because surveys, screenings, and assessments can be arbitrarily complex structurally, not all structures can be represented using this Observation grouping pattern.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1358,14 +1383,14 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-observation-screening-assessment|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
-    <t>(USCDI) US Core Profiles or other resource the observation is made from</t>
-  </si>
-  <si>
-    <t>US Core Observations, DocumentReference, QuestionnaireResponse or other resource from which this observation value is derived.</t>
+    <t>(USCDI) Related Observation(s) or other resource the observation is made from</t>
+  </si>
+  <si>
+    <t>Observations or or other resource such as a QuestionnaireResponse from which this observation value is derived.</t>
   </si>
   <si>
     <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
@@ -1453,6 +1478,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1784,7 +1813,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP53"/>
+  <dimension ref="A1:AP54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1795,7 +1824,7 @@
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1818,7 +1847,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="175.1796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.3671875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.8125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
@@ -3688,7 +3717,7 @@
         <v>193</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -3698,7 +3727,7 @@
         <v>82</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>82</v>
@@ -3713,13 +3742,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -3772,21 +3801,23 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C17" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="B17" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>93</v>
@@ -3795,22 +3826,22 @@
         <v>82</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>190</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>82</v>
@@ -3835,11 +3866,13 @@
         <v>82</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>82</v>
@@ -3857,13 +3890,13 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>82</v>
@@ -3872,34 +3905,34 @@
         <v>104</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>214</v>
+        <v>82</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>219</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3918,19 +3951,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>82</v>
@@ -3955,13 +3988,11 @@
         <v>82</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>82</v>
@@ -3979,10 +4010,10 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>92</v>
@@ -3994,30 +4025,30 @@
         <v>104</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4025,7 +4056,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>92</v>
@@ -4040,18 +4071,20 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
       </c>
@@ -4099,13 +4132,13 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>82</v>
@@ -4114,19 +4147,19 @@
         <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4134,14 +4167,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4151,7 +4184,7 @@
         <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>82</v>
@@ -4160,20 +4193,18 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>242</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>82</v>
       </c>
@@ -4221,13 +4252,13 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>82</v>
@@ -4236,19 +4267,19 @@
         <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>243</v>
+        <v>82</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>82</v>
@@ -4256,24 +4287,24 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>82</v>
@@ -4282,19 +4313,19 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4331,17 +4362,19 @@
         <v>82</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4356,19 +4389,19 @@
         <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>82</v>
@@ -4376,16 +4409,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4404,19 +4435,19 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4453,19 +4484,17 @@
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="AC22" s="2"/>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4474,25 +4503,25 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -4500,24 +4529,26 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="D23" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -4526,18 +4557,20 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4585,7 +4618,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4594,25 +4627,25 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>263</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -4620,10 +4653,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4634,10 +4667,10 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4646,18 +4679,18 @@
         <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>275</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -4705,13 +4738,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -4720,19 +4753,19 @@
         <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -4740,10 +4773,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4751,10 +4784,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>93</v>
@@ -4766,19 +4799,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -4827,45 +4860,45 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>284</v>
       </c>
       <c r="AL25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AM25" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AP25" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4873,34 +4906,34 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -4925,13 +4958,13 @@
         <v>82</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>82</v>
@@ -4949,7 +4982,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4958,7 +4991,7 @@
         <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>104</v>
@@ -4967,41 +5000,41 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
@@ -5013,16 +5046,16 @@
         <v>190</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5047,40 +5080,40 @@
         <v>82</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI27" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>104</v>
@@ -5089,31 +5122,31 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5132,19 +5165,19 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O28" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5169,13 +5202,13 @@
         <v>82</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>82</v>
@@ -5193,7 +5226,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5211,19 +5244,19 @@
         <v>82</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="29" hidden="true">
@@ -5242,7 +5275,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>82</v>
@@ -5254,18 +5287,20 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>321</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
       </c>
@@ -5289,13 +5324,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5319,7 +5354,7 @@
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>82</v>
@@ -5331,27 +5366,27 @@
         <v>82</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AM29" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5377,17 +5412,15 @@
         <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>335</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5411,13 +5444,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5435,7 +5468,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5453,27 +5486,27 @@
         <v>82</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AO30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5496,18 +5529,20 @@
         <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5531,13 +5566,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>82</v>
+        <v>344</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5555,7 +5590,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5573,7 +5608,7 @@
         <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>346</v>
@@ -5585,15 +5620,15 @@
         <v>82</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5616,16 +5651,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5675,7 +5710,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5693,27 +5728,27 @@
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5724,7 +5759,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -5736,20 +5771,18 @@
         <v>82</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
       </c>
@@ -5797,45 +5830,45 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP33" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5846,7 +5879,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -5858,16 +5891,20 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
       </c>
@@ -5915,19 +5952,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -5936,10 +5973,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -5950,21 +5987,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -5976,17 +6013,15 @@
         <v>82</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6035,19 +6070,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6059,7 +6094,7 @@
         <v>82</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6070,14 +6105,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6090,26 +6125,24 @@
         <v>82</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O36" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>82</v>
       </c>
@@ -6157,7 +6190,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6181,7 +6214,7 @@
         <v>82</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>82</v>
@@ -6192,42 +6225,46 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>147</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6275,19 +6312,19 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>82</v>
@@ -6296,10 +6333,10 @@
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>387</v>
+        <v>135</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
@@ -6310,10 +6347,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6336,13 +6373,13 @@
         <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6393,7 +6430,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6402,7 +6439,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>104</v>
@@ -6414,10 +6451,10 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6428,10 +6465,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6454,20 +6491,16 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>390</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>396</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6491,13 +6524,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>397</v>
+        <v>82</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6515,7 +6548,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6524,7 +6557,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>104</v>
@@ -6533,13 +6566,13 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6550,10 +6583,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6564,7 +6597,7 @@
         <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6579,16 +6612,16 @@
         <v>190</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6613,14 +6646,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>324</v>
+        <v>116</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>407</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6637,13 +6670,13 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
@@ -6655,13 +6688,13 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6672,10 +6705,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6686,7 +6719,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>82</v>
@@ -6698,7 +6731,7 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>409</v>
+        <v>190</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>410</v>
@@ -6706,9 +6739,11 @@
       <c r="M41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -6733,13 +6768,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -6757,13 +6792,13 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>82</v>
@@ -6775,13 +6810,13 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>82</v>
+        <v>407</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -6792,10 +6827,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6818,16 +6853,18 @@
         <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
       </c>
@@ -6875,7 +6912,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6896,10 +6933,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -6910,10 +6947,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6924,7 +6961,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -6933,20 +6970,18 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>419</v>
+        <v>376</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -6995,13 +7030,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7016,10 +7051,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7030,10 +7065,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7047,7 +7082,7 @@
         <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7056,16 +7091,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7115,7 +7150,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7136,10 +7171,10 @@
         <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
@@ -7150,10 +7185,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7167,7 +7202,7 @@
         <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
@@ -7176,20 +7211,18 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7237,7 +7270,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7258,10 +7291,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7272,10 +7305,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7286,7 +7319,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7295,19 +7328,23 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7355,19 +7392,19 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>439</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7376,10 +7413,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7390,21 +7427,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7416,17 +7453,15 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>138</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>139</v>
+        <v>377</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7475,19 +7510,19 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -7499,7 +7534,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7510,14 +7545,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>377</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7530,26 +7565,24 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>138</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>139</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="O48" t="s" s="2">
-        <v>147</v>
-      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
@@ -7597,7 +7630,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7621,7 +7654,7 @@
         <v>82</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7632,45 +7665,45 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>444</v>
+        <v>141</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7695,13 +7728,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>324</v>
+        <v>82</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>446</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7719,34 +7752,34 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>447</v>
+        <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>217</v>
+        <v>135</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>218</v>
+        <v>82</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -7754,10 +7787,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7765,7 +7798,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>92</v>
@@ -7780,19 +7813,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>449</v>
+        <v>190</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>450</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>283</v>
+        <v>451</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -7817,13 +7850,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -7841,10 +7874,10 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>92</v>
@@ -7859,27 +7892,27 @@
         <v>82</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>288</v>
+        <v>221</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>289</v>
+        <v>222</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7899,22 +7932,22 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>291</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -7939,13 +7972,13 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>297</v>
+        <v>82</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -7963,7 +7996,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7972,7 +8005,7 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>104</v>
@@ -7981,38 +8014,38 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>82</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>301</v>
+        <v>82</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8027,16 +8060,16 @@
         <v>190</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>462</v>
       </c>
       <c r="M52" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O52" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8061,13 +8094,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8085,16 +8118,16 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>465</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>104</v>
@@ -8103,31 +8136,31 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>308</v>
+        <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>309</v>
+        <v>135</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>311</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>309</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8146,19 +8179,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>459</v>
+        <v>310</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>460</v>
+        <v>311</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>362</v>
+        <v>312</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8183,13 +8216,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>82</v>
+        <v>314</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8207,7 +8240,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8225,23 +8258,145 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>316</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP54" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP53">
+  <autoFilter ref="A1:AP54">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8251,7 +8406,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI53">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
